--- a/BalanceSheet/GNRC_bal.xlsx
+++ b/BalanceSheet/GNRC_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-45833000.0</v>
+        <v>645000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-63379000.0</v>
+        <v>603000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>20712000.0</v>
+        <v>533000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>12829000.0</v>
+        <v>544000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-48145000.0</v>
+        <v>560000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>522024000.0</v>
@@ -1715,19 +1715,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>56769000.0</v>
+        <v>388000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>54416000.0</v>
+        <v>330000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>34611000.0</v>
+        <v>273000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-35804000.0</v>
+        <v>230000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>12817000.0</v>
+        <v>267000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>261977000.0</v>
@@ -2746,19 +2746,19 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1702000.0</v>
+        <v>121000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>5762000.0</v>
+        <v>114000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>7404000.0</v>
+        <v>102000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>6458000.0</v>
+        <v>94000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1571000.0</v>
+        <v>89000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>96328000.0</v>
@@ -4756,7 +4756,7 @@
         <v>586000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>613000000.0</v>
+        <v>575981000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>737816100.0</v>
@@ -4883,7 +4883,7 @@
         <v>893000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>936000000.0</v>
+        <v>898864000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>953854100.0</v>
